--- a/biology/Botanique/Riccia_sorocarpa/Riccia_sorocarpa.xlsx
+++ b/biology/Botanique/Riccia_sorocarpa/Riccia_sorocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Riccia sorocarpa est une espèce d'hépatique à thalle, de la famille des ricciaceae. Elle est présente sur tous les continents, et partout en France[1]. Elle se développe sur le sol nu, dans tous types d'habitats[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riccia sorocarpa est une espèce d'hépatique à thalle, de la famille des ricciaceae. Elle est présente sur tous les continents, et partout en France. Elle se développe sur le sol nu, dans tous types d'habitats. 
 </t>
         </is>
       </c>
@@ -511,13 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une hépatique à thalle, qui ne présente donc ni de tige ni de feuilles.
-Gamétophyte
-Le thalle, qui mesure 2 mm de large, est ramifié 2 à 4 fois et possède une marge transparente. Les cellules épidermiques sont également transparentes. Un sillon parcourt le centre de chaque ramification[3].
-Sporophyte
-Les capsules comme les anthéridies se situent à l'intérieur du thalle. Les spores restent à l'intérieur de la plante jusqu'à son délabrement[3].
 </t>
         </is>
       </c>
@@ -543,12 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gamétophyte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle, qui mesure 2 mm de large, est ramifié 2 à 4 fois et possède une marge transparente. Les cellules épidermiques sont également transparentes. Un sillon parcourt le centre de chaque ramification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Riccia_sorocarpa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riccia_sorocarpa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sporophyte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les capsules comme les anthéridies se situent à l'intérieur du thalle. Les spores restent à l'intérieur de la plante jusqu'à son délabrement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Riccia_sorocarpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riccia_sorocarpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se trouve sur le sol nu, dans les champs, les pelouses sèches, les chemins, les prairies humides etc.[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve sur le sol nu, dans les champs, les pelouses sèches, les chemins, les prairies humides etc..
 </t>
         </is>
       </c>
